--- a/nodes_source_analyses/energy/industry/industry_chp_turbine_gas_power_fuelmix.xlsx
+++ b/nodes_source_analyses/energy/industry/industry_chp_turbine_gas_power_fuelmix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/nodes_source_analyses/energy/industry/AAA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6465C19-4845-DE42-8826-052E88A0E21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E5011C-A32B-8C42-8E62-DACC730F633F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9280" yWindow="2620" windowWidth="25600" windowHeight="28300" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20920" yWindow="780" windowWidth="25600" windowHeight="28300" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="141">
   <si>
     <t>Source</t>
   </si>
@@ -150,9 +150,6 @@
     <t xml:space="preserve">Decmmmissioning cost </t>
   </si>
   <si>
-    <t>Electricity output capacity</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Electricity output capacity</t>
   </si>
   <si>
@@ -183,12 +180,6 @@
     <t>takes_part_in_ets</t>
   </si>
   <si>
-    <t>electricity_output_capacity</t>
-  </si>
-  <si>
-    <t>heat_output_capacity</t>
-  </si>
-  <si>
     <t>initial_investment</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
   </si>
   <si>
     <t>quintel/etsource@0277ad226491f5aae44c874b298cbcf694d2f6cb</t>
-  </si>
-  <si>
-    <t>Heat output capacity</t>
   </si>
   <si>
     <t>Investment cost with ccs</t>
@@ -663,6 +651,12 @@
   </si>
   <si>
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>input capacity</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1441,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1749,6 +1743,13 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="236">
@@ -2579,12 +2580,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="27"/>
+    <col min="1" max="1" width="4.83203125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="38" customFormat="1">
@@ -2610,16 +2611,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5"/>
       <c r="B5" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2644,7 +2645,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
       <c r="B9" s="101" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9" s="102"/>
     </row>
@@ -2656,31 +2657,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
       <c r="B11" s="103" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" s="105" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="5"/>
       <c r="B12" s="103"/>
       <c r="C12" s="21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="5"/>
       <c r="B13" s="103"/>
       <c r="C13" s="106" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
       <c r="B14" s="103"/>
       <c r="C14" s="104" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2691,58 +2692,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="5"/>
       <c r="B16" s="103" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C16" s="107" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5"/>
       <c r="B17" s="103"/>
       <c r="C17" s="108" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5"/>
       <c r="B18" s="103"/>
       <c r="C18" s="109" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="103"/>
       <c r="C19" s="110" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5"/>
       <c r="B20" s="111"/>
       <c r="C20" s="112" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5"/>
       <c r="B21" s="111"/>
       <c r="C21" s="113" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5"/>
       <c r="B22" s="111"/>
       <c r="C22" s="114" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="111"/>
       <c r="C23" s="115" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2756,25 +2757,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K55"/>
+  <dimension ref="B1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="46" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="45" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="2"/>
+    <col min="8" max="8" width="5.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="49.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2789,7 +2790,7 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="163" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C2" s="164"/>
       <c r="D2" s="164"/>
@@ -2853,7 +2854,7 @@
     <row r="8" spans="2:11" s="3" customFormat="1" ht="18">
       <c r="B8" s="127"/>
       <c r="C8" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="128" t="s">
         <v>15</v>
@@ -2885,7 +2886,7 @@
     <row r="10" spans="2:11" s="3" customFormat="1" ht="19" thickBot="1">
       <c r="B10" s="34"/>
       <c r="C10" s="21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="21"/>
@@ -2898,7 +2899,7 @@
     <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="29"/>
       <c r="C11" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>5</v>
@@ -2910,7 +2911,7 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J11" s="133"/>
       <c r="K11" s="1"/>
@@ -2918,7 +2919,7 @@
     <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="29"/>
       <c r="C12" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>5</v>
@@ -2930,7 +2931,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J12" s="133"/>
       <c r="K12" s="1"/>
@@ -2950,7 +2951,7 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J13" s="133"/>
       <c r="K13" s="1"/>
@@ -2958,49 +2959,41 @@
     <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="29"/>
       <c r="C14" s="43" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E14" s="48">
         <f>'Research data'!H6</f>
-        <v>45</v>
+        <v>118.4</v>
       </c>
       <c r="F14" s="26"/>
-      <c r="G14" s="46" t="s">
-        <v>30</v>
+      <c r="G14" s="172" t="s">
+        <v>140</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J14" s="133"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1">
+    <row r="15" spans="2:11">
       <c r="B15" s="29"/>
-      <c r="C15" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="48">
-        <v>49.736840000000001</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="28" t="s">
-        <v>55</v>
-      </c>
+      <c r="C15" s="130"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="133"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="29"/>
-      <c r="C16" s="130"/>
+      <c r="C16" s="21" t="s">
+        <v>96</v>
+      </c>
       <c r="D16" s="131"/>
       <c r="E16" s="125"/>
       <c r="F16" s="27"/>
@@ -3011,143 +3004,151 @@
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="29"/>
-      <c r="C17" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="133"/>
+      <c r="C17" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="44">
+        <f>'Research data'!H16</f>
+        <v>38250000</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="134"/>
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="29"/>
       <c r="C18" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="44">
-        <f>'Research data'!H15</f>
-        <v>38250000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="46" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="H18" s="26"/>
-      <c r="I18" s="157" t="s">
-        <v>54</v>
+      <c r="I18" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="J18" s="134"/>
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="29"/>
       <c r="C19" s="43" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="44">
         <v>0</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="46" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="134"/>
+        <v>52</v>
+      </c>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="29"/>
       <c r="C20" s="43" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="44">
         <v>0</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="46" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J20" s="133"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="29"/>
       <c r="C21" s="43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="44">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="E21" s="124">
+        <f>'Research data'!H19</f>
+        <v>315000</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="46" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="28" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="J21" s="133"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="29"/>
       <c r="C22" s="43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="124">
-        <f>'Research data'!H18</f>
-        <v>315000</v>
+        <v>49</v>
+      </c>
+      <c r="E22" s="44">
+        <f>'Research data'!H21</f>
+        <v>157.5</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J22" s="133"/>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="29"/>
       <c r="C23" s="43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E23" s="44">
-        <f>'Research data'!H20</f>
-        <v>157.5</v>
+        <v>0</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="28" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="J23" s="133"/>
     </row>
@@ -3157,244 +3158,233 @@
         <v>48</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="44">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E24" s="48">
+        <v>0.04</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="46" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H24" s="26"/>
-      <c r="I24" s="28" t="s">
-        <v>55</v>
+      <c r="I24" s="162" t="s">
+        <v>138</v>
       </c>
       <c r="J24" s="133"/>
     </row>
     <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="29"/>
       <c r="C25" s="43" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="48">
-        <v>0.04</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="44">
+        <v>1</v>
       </c>
       <c r="F25" s="26"/>
-      <c r="G25" s="46" t="s">
-        <v>25</v>
-      </c>
+      <c r="G25" s="26"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="162" t="s">
-        <v>142</v>
+      <c r="I25" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="J25" s="133"/>
     </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1">
+    <row r="26" spans="2:10">
       <c r="B26" s="29"/>
-      <c r="C26" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="44">
-        <v>1</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="28" t="s">
-        <v>55</v>
-      </c>
+      <c r="C26" s="130"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
       <c r="J26" s="133"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="29"/>
-      <c r="C27" s="130"/>
+      <c r="C27" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="D27" s="131"/>
       <c r="E27" s="125"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="132"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="133"/>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="29"/>
-      <c r="C28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="131"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="C28" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="44">
+        <f>'Research data'!H11</f>
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="47" t="s">
+        <v>103</v>
+      </c>
       <c r="J28" s="133"/>
     </row>
     <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="29"/>
       <c r="C29" s="43" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" s="44">
-        <f>'Research data'!H10</f>
-        <v>0.1</v>
+        <f>'Research data'!H12</f>
+        <v>1.5</v>
       </c>
       <c r="F29" s="26"/>
-      <c r="G29" s="26" t="s">
-        <v>16</v>
+      <c r="G29" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="H29" s="26"/>
-      <c r="I29" s="47" t="s">
-        <v>107</v>
+      <c r="I29" s="146" t="s">
+        <v>100</v>
       </c>
       <c r="J29" s="133"/>
     </row>
     <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="29"/>
       <c r="C30" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="44">
-        <f>'Research data'!H11</f>
-        <v>1.5</v>
+      <c r="E30" s="149">
+        <f>'Research data'!H13</f>
+        <v>25</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="146" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J30" s="133"/>
     </row>
     <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="29"/>
       <c r="C31" s="43" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="149">
-        <f>'Research data'!H12</f>
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="E31" s="44">
+        <v>0</v>
       </c>
       <c r="F31" s="26"/>
-      <c r="G31" s="46" t="s">
-        <v>27</v>
-      </c>
+      <c r="G31" s="26"/>
       <c r="H31" s="26"/>
-      <c r="I31" s="146" t="s">
-        <v>104</v>
+      <c r="I31" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="J31" s="133"/>
     </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1">
-      <c r="B32" s="29"/>
-      <c r="C32" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="44">
-        <v>0</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="133"/>
-    </row>
-    <row r="33" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="2:10">
+    <row r="32" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:9">
       <c r="B36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:9">
       <c r="B37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:9">
       <c r="B38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:9">
       <c r="B39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:9">
       <c r="B40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:9">
       <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:9">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -3404,7 +3394,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:9">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -3414,7 +3404,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:9">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -3424,7 +3414,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:9">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -3434,7 +3424,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:9">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -3444,7 +3434,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:9">
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -3454,7 +3444,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:9">
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -3523,16 +3513,6 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3548,31 +3528,31 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:P24"/>
+  <dimension ref="B1:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="49" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="49" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" style="49" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="49" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" style="49" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="74" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="74" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" style="74" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="49" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="49" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="49" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="49" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="49" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="49" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="74" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="74" customWidth="1"/>
+    <col min="13" max="13" width="2.83203125" style="74" customWidth="1"/>
     <col min="14" max="14" width="10" style="74" customWidth="1"/>
-    <col min="15" max="15" width="2.85546875" style="49" customWidth="1"/>
-    <col min="16" max="16" width="78.42578125" style="49" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="49"/>
+    <col min="15" max="15" width="2.83203125" style="49" customWidth="1"/>
+    <col min="16" max="16" width="78.5" style="49" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1"/>
@@ -3596,7 +3576,7 @@
     <row r="3" spans="2:16" s="35" customFormat="1">
       <c r="B3" s="34"/>
       <c r="C3" s="120" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -3605,23 +3585,23 @@
       </c>
       <c r="G3" s="120"/>
       <c r="H3" s="120" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I3" s="120"/>
       <c r="J3" s="121" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K3" s="121"/>
       <c r="L3" s="121" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M3" s="121"/>
       <c r="N3" s="121" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O3" s="120"/>
       <c r="P3" s="120" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:16">
@@ -3644,7 +3624,7 @@
     <row r="5" spans="2:16" ht="17" thickBot="1">
       <c r="B5" s="52"/>
       <c r="C5" s="42" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42"/>
@@ -3662,24 +3642,21 @@
     </row>
     <row r="6" spans="2:16" ht="17" thickBot="1">
       <c r="B6" s="52"/>
-      <c r="C6" s="79" t="s">
-        <v>31</v>
+      <c r="C6" s="92" t="s">
+        <v>139</v>
       </c>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="F6" s="116" t="s">
-        <v>87</v>
+      <c r="F6" s="173" t="s">
+        <v>90</v>
       </c>
       <c r="G6" s="123"/>
       <c r="H6" s="82">
-        <f>ROUND(45,0)</f>
-        <v>45</v>
+        <f>ROUND(H7/H8,1)</f>
+        <v>118.4</v>
       </c>
       <c r="I6" s="81"/>
-      <c r="J6" s="82">
-        <f>Notes!D12/1000</f>
-        <v>45</v>
-      </c>
+      <c r="J6" s="83"/>
       <c r="K6" s="83"/>
       <c r="L6" s="83"/>
       <c r="M6" s="83"/>
@@ -3687,169 +3664,176 @@
     </row>
     <row r="7" spans="2:16" ht="17" thickBot="1">
       <c r="B7" s="52"/>
-      <c r="C7" s="84" t="s">
-        <v>131</v>
+      <c r="C7" s="79" t="s">
+        <v>30</v>
       </c>
       <c r="D7" s="79"/>
       <c r="E7" s="79"/>
-      <c r="F7" s="156" t="s">
-        <v>3</v>
+      <c r="F7" s="116" t="s">
+        <v>83</v>
       </c>
       <c r="G7" s="123"/>
       <c r="H7" s="82">
-        <f>ROUND(38,0)</f>
-        <v>38</v>
+        <f>ROUND(45,0)</f>
+        <v>45</v>
       </c>
       <c r="I7" s="81"/>
       <c r="J7" s="82">
-        <f>Notes!D14</f>
-        <v>38</v>
+        <f>Notes!D12/1000</f>
+        <v>45</v>
       </c>
       <c r="K7" s="83"/>
       <c r="L7" s="83"/>
       <c r="M7" s="83"/>
       <c r="P7" s="78"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" ht="17" thickBot="1">
       <c r="B8" s="52"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
+      <c r="C8" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="123"/>
+      <c r="H8" s="174">
+        <f>J8/100</f>
+        <v>0.38</v>
+      </c>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82">
+        <f>Notes!D14</f>
+        <v>38</v>
+      </c>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
       <c r="P8" s="78"/>
     </row>
-    <row r="9" spans="2:16" ht="17" thickBot="1">
+    <row r="9" spans="2:16">
       <c r="B9" s="52"/>
-      <c r="C9" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="89"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
       <c r="P9" s="78"/>
     </row>
     <row r="10" spans="2:16" ht="17" thickBot="1">
       <c r="B10" s="52"/>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="89"/>
+      <c r="P10" s="78"/>
+    </row>
+    <row r="11" spans="2:16" ht="17" thickBot="1">
+      <c r="B11" s="52"/>
+      <c r="C11" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="80" t="s">
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="91">
+      <c r="G11" s="81"/>
+      <c r="H11" s="91">
         <f>ROUND(0.1,1)</f>
         <v>0.1</v>
       </c>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="87">
+      <c r="I11" s="85"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="87">
         <v>0.1</v>
       </c>
-      <c r="P10" s="141" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="17" thickBot="1">
-      <c r="B11" s="52"/>
-      <c r="C11" s="90" t="s">
+      <c r="P11" s="141" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="17" thickBot="1">
+      <c r="B12" s="52"/>
+      <c r="C12" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="80" t="s">
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="91">
+      <c r="G12" s="81"/>
+      <c r="H12" s="91">
         <f>ROUND(1.5,1)</f>
         <v>1.5</v>
-      </c>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="138">
-        <f>Notes!D50/12</f>
-        <v>1.5</v>
-      </c>
-      <c r="M11" s="86"/>
-      <c r="N11" s="77"/>
-      <c r="P11" s="45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="17" thickBot="1">
-      <c r="B12" s="52"/>
-      <c r="C12" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="93">
-        <f>ROUND(25,0)</f>
-        <v>25</v>
       </c>
       <c r="I12" s="86"/>
       <c r="J12" s="86"/>
       <c r="K12" s="86"/>
-      <c r="L12" s="82">
+      <c r="L12" s="138">
+        <f>Notes!D50/12</f>
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="86"/>
+      <c r="N12" s="77"/>
+      <c r="P12" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="17" thickBot="1">
+      <c r="B13" s="52"/>
+      <c r="C13" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="81"/>
+      <c r="H13" s="93">
+        <f>ROUND(25,0)</f>
+        <v>25</v>
+      </c>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="82">
         <f>Notes!D51</f>
         <v>25</v>
       </c>
-      <c r="M12" s="86"/>
-      <c r="N12" s="77"/>
-      <c r="P12" s="139" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="52"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="89"/>
-      <c r="P13" s="78"/>
-    </row>
-    <row r="14" spans="2:16" ht="17" thickBot="1">
+      <c r="M13" s="86"/>
+      <c r="N13" s="77"/>
+      <c r="P13" s="139" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" s="52"/>
-      <c r="C14" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -3858,128 +3842,122 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="89"/>
-      <c r="P14" s="135"/>
+      <c r="P14" s="78"/>
     </row>
     <row r="15" spans="2:16" ht="17" thickBot="1">
       <c r="B15" s="52"/>
-      <c r="C15" s="126" t="s">
-        <v>95</v>
+      <c r="C15" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="117" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="94">
-        <f>ROUND(H16*H6*1000,2)</f>
-        <v>38250000</v>
-      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="94">
-        <f>J16*H6*1000</f>
-        <v>38250000</v>
-      </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="89"/>
-      <c r="P15" s="159" t="s">
-        <v>133</v>
-      </c>
+      <c r="P15" s="135"/>
     </row>
     <row r="16" spans="2:16" ht="17" thickBot="1">
       <c r="B16" s="52"/>
       <c r="C16" s="126" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="116" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="123"/>
+        <v>91</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="118"/>
       <c r="H16" s="94">
-        <f>J16</f>
-        <v>850</v>
-      </c>
-      <c r="I16" s="86"/>
-      <c r="J16" s="100">
-        <f>Notes!D13</f>
-        <v>850</v>
+        <f>ROUND(H17*H7*1000,2)</f>
+        <v>38250000</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="94">
+        <f>J17*H7*1000</f>
+        <v>38250000</v>
       </c>
       <c r="K16" s="86"/>
       <c r="L16" s="86"/>
       <c r="M16" s="86"/>
       <c r="N16" s="89"/>
-      <c r="P16" s="159"/>
+      <c r="P16" s="159" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="17" spans="2:16" ht="17" thickBot="1">
       <c r="B17" s="52"/>
-      <c r="C17" s="140" t="s">
-        <v>101</v>
+      <c r="C17" s="126" t="s">
+        <v>92</v>
       </c>
       <c r="D17" s="95"/>
       <c r="E17" s="95"/>
-      <c r="F17" s="118" t="s">
-        <v>53</v>
+      <c r="F17" s="116" t="s">
+        <v>84</v>
       </c>
       <c r="G17" s="123"/>
-      <c r="H17" s="96">
-        <f>H18+H21</f>
-        <v>1260000</v>
+      <c r="H17" s="94">
+        <f>J17</f>
+        <v>850</v>
       </c>
       <c r="I17" s="86"/>
       <c r="J17" s="100">
-        <f>Notes!D32</f>
-        <v>1260000</v>
+        <f>Notes!D13</f>
+        <v>850</v>
       </c>
       <c r="K17" s="86"/>
       <c r="L17" s="86"/>
       <c r="M17" s="86"/>
       <c r="N17" s="89"/>
-      <c r="P17" s="159" t="s">
-        <v>115</v>
-      </c>
+      <c r="P17" s="159"/>
     </row>
     <row r="18" spans="2:16" ht="17" thickBot="1">
       <c r="B18" s="52"/>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="148" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="118"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="123"/>
       <c r="H18" s="96">
-        <f>ROUND(H19*1000*H6,2)</f>
-        <v>315000</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="86"/>
+        <f>H19+H22</f>
+        <v>1260000</v>
+      </c>
+      <c r="I18" s="86"/>
+      <c r="J18" s="100">
+        <f>Notes!D32</f>
+        <v>1260000</v>
+      </c>
       <c r="K18" s="86"/>
       <c r="L18" s="86"/>
       <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="P18" s="45" t="s">
-        <v>62</v>
+      <c r="N18" s="89"/>
+      <c r="P18" s="159" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="17" thickBot="1">
       <c r="B19" s="52"/>
-      <c r="C19" s="126" t="s">
-        <v>98</v>
+      <c r="C19" s="137" t="s">
+        <v>93</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="118" t="s">
-        <v>89</v>
+      <c r="F19" s="148" t="s">
+        <v>50</v>
       </c>
       <c r="G19" s="118"/>
       <c r="H19" s="96">
-        <v>7</v>
+        <f>ROUND(H20*1000*H7,2)</f>
+        <v>315000</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="86"/>
@@ -3987,49 +3965,48 @@
       <c r="L19" s="86"/>
       <c r="M19" s="86"/>
       <c r="N19" s="86"/>
-      <c r="P19" s="151" t="s">
-        <v>121</v>
+      <c r="P19" s="45" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17" thickBot="1">
       <c r="B20" s="52"/>
-      <c r="C20" s="136" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="81"/>
-      <c r="H20" s="94">
-        <f>ROUND(H22*H24/H23,2)</f>
-        <v>157.5</v>
-      </c>
-      <c r="I20" s="86"/>
+      <c r="C20" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="118"/>
+      <c r="H20" s="96">
+        <v>7</v>
+      </c>
+      <c r="I20" s="18"/>
       <c r="J20" s="86"/>
       <c r="K20" s="86"/>
       <c r="L20" s="86"/>
       <c r="M20" s="86"/>
       <c r="N20" s="86"/>
       <c r="P20" s="151" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="17" thickBot="1">
       <c r="B21" s="52"/>
-      <c r="C21" s="126" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
+      <c r="C21" s="136" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
       <c r="F21" s="80" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G21" s="81"/>
       <c r="H21" s="94">
-        <f>H20*H23</f>
-        <v>945000</v>
+        <f>ROUND(H23*H25/H24,2)</f>
+        <v>157.5</v>
       </c>
       <c r="I21" s="86"/>
       <c r="J21" s="86"/>
@@ -4038,75 +4015,75 @@
       <c r="M21" s="86"/>
       <c r="N21" s="86"/>
       <c r="P21" s="151" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="17" thickBot="1">
       <c r="B22" s="52"/>
       <c r="C22" s="126" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D22" s="97"/>
       <c r="E22" s="97"/>
-      <c r="F22" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="123"/>
+      <c r="F22" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="81"/>
       <c r="H22" s="94">
-        <f>J22</f>
-        <v>3.5</v>
+        <f>H21*H24</f>
+        <v>945000</v>
       </c>
       <c r="I22" s="86"/>
-      <c r="J22" s="94">
-        <f>Notes!D33</f>
-        <v>3.5</v>
-      </c>
+      <c r="J22" s="86"/>
       <c r="K22" s="86"/>
       <c r="L22" s="86"/>
       <c r="M22" s="86"/>
       <c r="N22" s="86"/>
-      <c r="P22" s="161" t="s">
-        <v>140</v>
+      <c r="P22" s="151" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="17" thickBot="1">
       <c r="B23" s="52"/>
       <c r="C23" s="126" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="99">
-        <v>6000</v>
-      </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="P23" s="160" t="s">
-        <v>137</v>
+        <v>55</v>
+      </c>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="123"/>
+      <c r="H23" s="94">
+        <f>J23</f>
+        <v>3.5</v>
+      </c>
+      <c r="I23" s="86"/>
+      <c r="J23" s="94">
+        <f>Notes!D33</f>
+        <v>3.5</v>
+      </c>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="P23" s="161" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="17" thickBot="1">
       <c r="B24" s="52"/>
-      <c r="C24" s="147" t="s">
-        <v>114</v>
+      <c r="C24" s="126" t="s">
+        <v>95</v>
       </c>
       <c r="D24" s="78"/>
       <c r="E24" s="78"/>
-      <c r="F24" s="119" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="104"/>
+      <c r="F24" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="53"/>
       <c r="H24" s="99">
-        <f>H23*H6</f>
-        <v>270000</v>
+        <v>6000</v>
       </c>
       <c r="I24" s="53"/>
       <c r="J24" s="77"/>
@@ -4115,13 +4092,38 @@
       <c r="M24" s="89"/>
       <c r="N24" s="89"/>
       <c r="P24" s="160" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="17" thickBot="1">
+      <c r="B25" s="52"/>
+      <c r="C25" s="147" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="104"/>
+      <c r="H25" s="99">
+        <f>H24*H7</f>
+        <v>270000</v>
+      </c>
+      <c r="I25" s="53"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="P25" s="160" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P18" r:id="rId1" location="issuecomment-18286997" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="P11" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="P19" r:id="rId1" location="issuecomment-18286997" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="P12" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4139,17 +4141,17 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="54" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="54" customWidth="1"/>
-    <col min="6" max="8" width="12.140625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="54" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="54" customWidth="1"/>
+    <col min="6" max="8" width="12.1640625" style="54" customWidth="1"/>
     <col min="9" max="9" width="39" style="55" customWidth="1"/>
-    <col min="10" max="10" width="130.140625" style="54" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="54"/>
+    <col min="10" max="10" width="130.1640625" style="54" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -4191,7 +4193,7 @@
     <row r="5" spans="2:10">
       <c r="B5" s="64"/>
       <c r="C5" s="65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="65" t="s">
         <v>0</v>
@@ -4200,16 +4202,16 @@
         <v>20</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I5" s="66" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J5" s="65" t="s">
         <v>17</v>
@@ -4226,27 +4228,27 @@
       <c r="I6" s="61"/>
       <c r="J6" s="60"/>
     </row>
-    <row r="7" spans="2:10" ht="17">
+    <row r="7" spans="2:10" ht="34">
       <c r="B7" s="59"/>
       <c r="C7" s="67"/>
       <c r="D7" s="67" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E7" s="69" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G7" s="70">
         <v>2009</v>
       </c>
       <c r="H7" s="70"/>
       <c r="I7" s="71" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J7" s="72" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -4279,27 +4281,27 @@
       <c r="B10" s="59"/>
       <c r="C10" s="67"/>
       <c r="D10" s="67" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10" s="62" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H10" s="63"/>
       <c r="I10" s="63" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J10" s="72"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="59"/>
       <c r="C11" s="68" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="62"/>
@@ -4312,7 +4314,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="59"/>
       <c r="C12" s="143" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="62"/>
@@ -4325,7 +4327,7 @@
     <row r="13" spans="2:10">
       <c r="B13" s="59"/>
       <c r="C13" s="143" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="62"/>
@@ -4350,7 +4352,7 @@
       <c r="B15" s="59"/>
       <c r="C15" s="67"/>
       <c r="D15" s="67" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>10</v>
@@ -4359,18 +4361,18 @@
         <v>2013</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="72" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="59"/>
       <c r="C16" s="143" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="62"/>
@@ -4383,7 +4385,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="59"/>
       <c r="C17" s="143" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D17" s="62"/>
       <c r="E17" s="67"/>
@@ -4408,7 +4410,7 @@
       <c r="B19" s="145"/>
       <c r="C19" s="67"/>
       <c r="D19" s="62" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E19" s="67" t="s">
         <v>10</v>
@@ -4416,22 +4418,22 @@
       <c r="F19" s="142"/>
       <c r="G19" s="142"/>
       <c r="H19" s="67" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I19" s="73"/>
       <c r="J19" s="72" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="145" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C20" s="143" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E20" s="67"/>
       <c r="F20" s="142"/>
@@ -4460,11 +4462,11 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="150" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="150" customWidth="1"/>
-    <col min="3" max="16384" width="10.7109375" style="150"/>
+    <col min="1" max="1" width="5.83203125" style="150" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="150" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="150"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
@@ -4489,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
@@ -4535,7 +4537,7 @@
     <row r="6" spans="2:14">
       <c r="B6" s="154"/>
       <c r="C6" s="155" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="155"/>
       <c r="E6" s="155"/>
@@ -4631,7 +4633,7 @@
         <v>45000</v>
       </c>
       <c r="E12" s="155" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F12" s="155"/>
       <c r="G12" s="155"/>
@@ -4650,7 +4652,7 @@
         <v>850</v>
       </c>
       <c r="E13" s="155" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F13" s="155"/>
       <c r="G13" s="155"/>
@@ -4939,13 +4941,13 @@
     <row r="32" spans="2:14">
       <c r="B32" s="154"/>
       <c r="C32" s="155" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D32" s="155">
         <v>1260000</v>
       </c>
       <c r="E32" s="155" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F32" s="155"/>
       <c r="G32" s="155"/>
@@ -4960,13 +4962,13 @@
     <row r="33" spans="2:14">
       <c r="B33" s="154"/>
       <c r="C33" s="158" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D33" s="155">
         <v>3.5</v>
       </c>
       <c r="E33" s="158" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F33" s="155"/>
       <c r="G33" s="155"/>
@@ -5131,7 +5133,7 @@
     <row r="44" spans="2:14">
       <c r="B44" s="154"/>
       <c r="C44" s="155" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D44" s="155"/>
       <c r="E44" s="155"/>
@@ -5148,7 +5150,7 @@
     <row r="45" spans="2:14">
       <c r="B45" s="154"/>
       <c r="C45" s="155" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D45" s="155"/>
       <c r="E45" s="155"/>
@@ -5229,7 +5231,7 @@
         <v>18</v>
       </c>
       <c r="E50" s="155" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F50" s="155"/>
       <c r="G50" s="155"/>
@@ -5248,7 +5250,7 @@
         <v>25</v>
       </c>
       <c r="E51" s="155" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F51" s="155"/>
       <c r="G51" s="155"/>
